--- a/docs/database/Chang.xlsx
+++ b/docs/database/Chang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ching chang\FinalProject_GameForum\FinalProject_GameForum\docs\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B0F045-4448-41C5-A1BF-4082C949D60D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6985745-22D5-49A9-9275-BC0F55FC2D52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="48">
   <si>
     <t>商品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,6 +207,14 @@
   </si>
   <si>
     <t>商品細節圖庫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品種類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>種類名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y34"/>
+  <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1122,6 +1130,23 @@
         <v>40</v>
       </c>
     </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G36" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
